--- a/data/pca/factorExposure/factorExposure_2018-08-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-08-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.03829971743643368</v>
+        <v>0.02691492261934414</v>
       </c>
       <c r="C2">
-        <v>-0.03800764510529069</v>
+        <v>0.01661367103182416</v>
       </c>
       <c r="D2">
-        <v>0.01322564894383664</v>
+        <v>-0.02058417019320798</v>
       </c>
       <c r="E2">
-        <v>-0.04618268836284187</v>
+        <v>0.01504256880810498</v>
       </c>
       <c r="F2">
-        <v>0.136828248393314</v>
+        <v>0.006965822441115927</v>
       </c>
       <c r="G2">
-        <v>-0.07956284763066455</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.079438433281563</v>
+      </c>
+      <c r="H2">
+        <v>-0.03018471730255355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1264255660790484</v>
+        <v>0.07816021964304677</v>
       </c>
       <c r="C3">
-        <v>-0.03823334239789475</v>
+        <v>-0.01247017770964091</v>
       </c>
       <c r="D3">
-        <v>-0.04778880066918276</v>
+        <v>-0.01732588328469482</v>
       </c>
       <c r="E3">
-        <v>-0.08531063488720063</v>
+        <v>0.005891576363847747</v>
       </c>
       <c r="F3">
-        <v>0.3550248705385075</v>
+        <v>-0.0445550205087142</v>
       </c>
       <c r="G3">
-        <v>-0.2525513084782147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.2507336328052049</v>
+      </c>
+      <c r="H3">
+        <v>-0.07463918087083583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05346213109495711</v>
+        <v>0.04814763282417153</v>
       </c>
       <c r="C4">
-        <v>0.001366958146118128</v>
+        <v>0.003623257874695488</v>
       </c>
       <c r="D4">
-        <v>0.03920279695158194</v>
+        <v>-0.04132536918658988</v>
       </c>
       <c r="E4">
-        <v>-0.06593440874906188</v>
+        <v>-0.01906393442903873</v>
       </c>
       <c r="F4">
-        <v>0.06778841230017524</v>
+        <v>0.04945157012745598</v>
       </c>
       <c r="G4">
-        <v>-0.06515567154663997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.05523912612565365</v>
+      </c>
+      <c r="H4">
+        <v>-0.03648079029165081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01427599484191617</v>
+        <v>0.02625016650960011</v>
       </c>
       <c r="C6">
-        <v>-0.009186136048284246</v>
+        <v>0.003949354032381442</v>
       </c>
       <c r="D6">
-        <v>-0.007293759993125462</v>
+        <v>-0.0518067427232073</v>
       </c>
       <c r="E6">
-        <v>-0.02186849709326787</v>
+        <v>-0.004022546511924929</v>
       </c>
       <c r="F6">
-        <v>0.01319574507107246</v>
+        <v>0.03058826240646102</v>
       </c>
       <c r="G6">
-        <v>-0.0008556621624636942</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.02055425807933643</v>
+      </c>
+      <c r="H6">
+        <v>-0.05571591397206253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02472671549228251</v>
+        <v>0.02045659907054459</v>
       </c>
       <c r="C7">
-        <v>-0.005299094309880369</v>
+        <v>0.003301597275675883</v>
       </c>
       <c r="D7">
-        <v>-0.005346842298430659</v>
+        <v>-0.02521085880386015</v>
       </c>
       <c r="E7">
-        <v>-0.03879997012212456</v>
+        <v>-0.03567803080704908</v>
       </c>
       <c r="F7">
-        <v>0.04880485552110422</v>
+        <v>0.008839147528297578</v>
       </c>
       <c r="G7">
-        <v>-0.06687508042959286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03529322704574628</v>
+      </c>
+      <c r="H7">
+        <v>-0.02709083054731817</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.02074176382236379</v>
+        <v>0.006856275972375423</v>
       </c>
       <c r="C8">
-        <v>0.001304131957756729</v>
+        <v>-0.002280266101535627</v>
       </c>
       <c r="D8">
-        <v>0.01106993003576317</v>
+        <v>-0.0103777150147467</v>
       </c>
       <c r="E8">
-        <v>-0.06933894335183211</v>
+        <v>-0.01021256960708446</v>
       </c>
       <c r="F8">
-        <v>0.08479562843697995</v>
+        <v>0.01949446598082482</v>
       </c>
       <c r="G8">
-        <v>-0.08921885030286987</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.05931760638400443</v>
+      </c>
+      <c r="H8">
+        <v>-0.01770484581428112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04623933104462558</v>
+        <v>0.04012078538550791</v>
       </c>
       <c r="C9">
-        <v>0.009060270419287213</v>
+        <v>-0.0007212847358032734</v>
       </c>
       <c r="D9">
-        <v>0.03060657625245954</v>
+        <v>-0.03300990066238039</v>
       </c>
       <c r="E9">
-        <v>-0.06628723500953279</v>
+        <v>-0.01725726542457343</v>
       </c>
       <c r="F9">
-        <v>0.07133355762756566</v>
+        <v>0.02418602225956809</v>
       </c>
       <c r="G9">
-        <v>-0.06059242582975263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.0638792068714453</v>
+      </c>
+      <c r="H9">
+        <v>-0.03418510744889191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03224261429107128</v>
+        <v>0.09967594966559006</v>
       </c>
       <c r="C10">
-        <v>0.03119611728107316</v>
+        <v>-0.03070788614665237</v>
       </c>
       <c r="D10">
-        <v>0.02657275804482642</v>
+        <v>0.1528420941269241</v>
       </c>
       <c r="E10">
-        <v>0.1128553899592919</v>
+        <v>0.008274639557896814</v>
       </c>
       <c r="F10">
-        <v>0.06385903035132494</v>
+        <v>-0.04672805451570033</v>
       </c>
       <c r="G10">
-        <v>0.002695665449559784</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02290867688387712</v>
+      </c>
+      <c r="H10">
+        <v>-0.0009162677084678877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.0361718254571687</v>
+        <v>0.02128830952121602</v>
       </c>
       <c r="C11">
-        <v>-0.01955165852507757</v>
+        <v>-0.008191601270537273</v>
       </c>
       <c r="D11">
-        <v>0.00127727385981141</v>
+        <v>-0.03689911554306853</v>
       </c>
       <c r="E11">
-        <v>-0.03751099003052191</v>
+        <v>0.005141170979655626</v>
       </c>
       <c r="F11">
-        <v>0.03432739946996954</v>
+        <v>0.01060348792210212</v>
       </c>
       <c r="G11">
-        <v>-0.02569810138087244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.03515189265916649</v>
+      </c>
+      <c r="H11">
+        <v>-0.03248588508389415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04386446929815037</v>
+        <v>0.02977977191259208</v>
       </c>
       <c r="C12">
-        <v>-0.007845538386971176</v>
+        <v>-0.006582247540333512</v>
       </c>
       <c r="D12">
-        <v>0.009202478886964226</v>
+        <v>-0.03797922956398794</v>
       </c>
       <c r="E12">
-        <v>-0.04506569065478926</v>
+        <v>-0.006525856684240971</v>
       </c>
       <c r="F12">
-        <v>0.01952866905200329</v>
+        <v>0.01713592257798473</v>
       </c>
       <c r="G12">
-        <v>-0.01638045731168233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.01504009805327923</v>
+      </c>
+      <c r="H12">
+        <v>-0.01691594557526031</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.02342005556077126</v>
+        <v>0.02754912328877046</v>
       </c>
       <c r="C13">
-        <v>-0.03537736386504779</v>
+        <v>0.01310317882196659</v>
       </c>
       <c r="D13">
-        <v>0.007750936997656251</v>
+        <v>-0.003184050336096559</v>
       </c>
       <c r="E13">
-        <v>-0.0151381783080726</v>
+        <v>0.01806746135113685</v>
       </c>
       <c r="F13">
-        <v>0.08029317940313095</v>
+        <v>0.01142753925519039</v>
       </c>
       <c r="G13">
-        <v>-0.05075679788578154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.06654692823830494</v>
+      </c>
+      <c r="H13">
+        <v>-0.03710380063852638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01237415273403334</v>
+        <v>0.01626551359693956</v>
       </c>
       <c r="C14">
-        <v>-0.005524207538307094</v>
+        <v>0.000782377751911148</v>
       </c>
       <c r="D14">
-        <v>0.006538013074709049</v>
+        <v>-0.005208315859512765</v>
       </c>
       <c r="E14">
-        <v>-0.03747683089555973</v>
+        <v>-0.007586339274578154</v>
       </c>
       <c r="F14">
-        <v>0.04992305158130979</v>
+        <v>0.01530761479243769</v>
       </c>
       <c r="G14">
-        <v>-0.07583832430347279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04683327188799505</v>
+      </c>
+      <c r="H14">
+        <v>0.01063401763420138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02740940903564293</v>
+        <v>0.02266129574110919</v>
       </c>
       <c r="C16">
-        <v>-0.01850110127338448</v>
+        <v>-0.008744122177517629</v>
       </c>
       <c r="D16">
-        <v>0.003581121677026629</v>
+        <v>-0.03323274410162342</v>
       </c>
       <c r="E16">
-        <v>-0.03471451028113665</v>
+        <v>0.0001129396474876333</v>
       </c>
       <c r="F16">
-        <v>0.04018942938311335</v>
+        <v>0.01547870798876178</v>
       </c>
       <c r="G16">
-        <v>-0.02869485654238972</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.03228066620880143</v>
+      </c>
+      <c r="H16">
+        <v>-0.02585979901590574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04375123495677103</v>
+        <v>0.03404276538482064</v>
       </c>
       <c r="C19">
-        <v>-0.01930580339788485</v>
+        <v>-0.0001369046325152981</v>
       </c>
       <c r="D19">
-        <v>0.0004452209269419956</v>
+        <v>-0.01574099195355263</v>
       </c>
       <c r="E19">
-        <v>-0.05038008416650131</v>
+        <v>0.001126523224441478</v>
       </c>
       <c r="F19">
-        <v>0.09862413293851108</v>
+        <v>0.02181184415626613</v>
       </c>
       <c r="G19">
-        <v>-0.0692370148890158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.07629929767767359</v>
+      </c>
+      <c r="H19">
+        <v>-0.0457773431354867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.002092159365253954</v>
+        <v>0.01028640360489603</v>
       </c>
       <c r="C20">
-        <v>-0.0131106315800424</v>
+        <v>0.006474560744847366</v>
       </c>
       <c r="D20">
-        <v>0.01476005921046004</v>
+        <v>-0.005001444110284583</v>
       </c>
       <c r="E20">
-        <v>-0.03907278391233066</v>
+        <v>7.319091794946791e-05</v>
       </c>
       <c r="F20">
-        <v>0.04914201437344559</v>
+        <v>0.01098811655050582</v>
       </c>
       <c r="G20">
-        <v>-0.08367769924348953</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05383355873049692</v>
+      </c>
+      <c r="H20">
+        <v>0.002846797825313977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0007932639434143357</v>
+        <v>0.01899287665967118</v>
       </c>
       <c r="C21">
-        <v>-0.0005297624602702813</v>
+        <v>0.006781113680872527</v>
       </c>
       <c r="D21">
-        <v>-0.0122349403432753</v>
+        <v>-0.009285304290869765</v>
       </c>
       <c r="E21">
-        <v>-0.03963630507325863</v>
+        <v>-0.01094944568534225</v>
       </c>
       <c r="F21">
-        <v>0.06006007278383505</v>
+        <v>0.006462088989822945</v>
       </c>
       <c r="G21">
-        <v>-0.03767211904023417</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.0638386027167408</v>
+      </c>
+      <c r="H21">
+        <v>-0.01086427060281463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03349767598575965</v>
+        <v>0.02075700988936227</v>
       </c>
       <c r="C24">
-        <v>-0.01531821667548603</v>
+        <v>-0.003243158729294707</v>
       </c>
       <c r="D24">
-        <v>0.01052078392578622</v>
+        <v>-0.03332768018787579</v>
       </c>
       <c r="E24">
-        <v>-0.01996497458919099</v>
+        <v>5.888467085533023e-05</v>
       </c>
       <c r="F24">
-        <v>0.03531407152604552</v>
+        <v>0.009500041308919261</v>
       </c>
       <c r="G24">
-        <v>-0.02484079331459074</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02837055612746545</v>
+      </c>
+      <c r="H24">
+        <v>-0.03007128150019138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03192758435886058</v>
+        <v>0.02971285840986615</v>
       </c>
       <c r="C25">
-        <v>-0.009207018908494874</v>
+        <v>-0.001036908166958264</v>
       </c>
       <c r="D25">
-        <v>0.001955983898312873</v>
+        <v>-0.0331189483655546</v>
       </c>
       <c r="E25">
-        <v>-0.04104461837118825</v>
+        <v>-0.001465011265093089</v>
       </c>
       <c r="F25">
-        <v>0.03507679285783791</v>
+        <v>0.01614674027947801</v>
       </c>
       <c r="G25">
-        <v>-0.009055077079788521</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.03317976782265795</v>
+      </c>
+      <c r="H25">
+        <v>-0.03224173199423396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02416560024158468</v>
+        <v>0.02078640194056481</v>
       </c>
       <c r="C26">
-        <v>-0.02755419798309257</v>
+        <v>0.01677639069994938</v>
       </c>
       <c r="D26">
-        <v>-0.01691711334075398</v>
+        <v>-0.002441400534571342</v>
       </c>
       <c r="E26">
-        <v>-0.03457115919158671</v>
+        <v>0.007179505947964547</v>
       </c>
       <c r="F26">
-        <v>0.05641856552747817</v>
+        <v>0.0007046202872018091</v>
       </c>
       <c r="G26">
-        <v>-0.03995839147405911</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03831559018143433</v>
+      </c>
+      <c r="H26">
+        <v>-0.004427175184262076</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.06932184824065296</v>
+        <v>0.02698760601012141</v>
       </c>
       <c r="C27">
-        <v>-0.007340066251476474</v>
+        <v>-0.01064194568413179</v>
       </c>
       <c r="D27">
-        <v>0.05257874900411764</v>
+        <v>-0.01683830754975019</v>
       </c>
       <c r="E27">
-        <v>-0.04387858268315232</v>
+        <v>-0.004950855241932355</v>
       </c>
       <c r="F27">
-        <v>0.04100451845650938</v>
+        <v>0.02186868347312477</v>
       </c>
       <c r="G27">
-        <v>-0.03994953253367005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.02279038158709917</v>
+      </c>
+      <c r="H27">
+        <v>-0.00054586094985098</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05052448441598836</v>
+        <v>0.1494245410861048</v>
       </c>
       <c r="C28">
-        <v>0.04660499236519596</v>
+        <v>-0.03280853381930831</v>
       </c>
       <c r="D28">
-        <v>0.04914436259360996</v>
+        <v>0.2253723395001973</v>
       </c>
       <c r="E28">
-        <v>0.1672990987213961</v>
+        <v>0.005213965959693221</v>
       </c>
       <c r="F28">
-        <v>0.07855774800846409</v>
+        <v>-0.05223726068385792</v>
       </c>
       <c r="G28">
-        <v>-0.02455886642774592</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.007790296907076761</v>
+      </c>
+      <c r="H28">
+        <v>0.0163599948435908</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02142318847787305</v>
+        <v>0.02113453545250444</v>
       </c>
       <c r="C29">
-        <v>0.00132402147269455</v>
+        <v>-0.001426611396884723</v>
       </c>
       <c r="D29">
-        <v>0.01233167658164823</v>
+        <v>-0.008446303476211432</v>
       </c>
       <c r="E29">
-        <v>-0.0510943770156702</v>
+        <v>-0.009209931648492441</v>
       </c>
       <c r="F29">
-        <v>0.0404436899917525</v>
+        <v>0.01845841318115831</v>
       </c>
       <c r="G29">
-        <v>-0.06744501008007726</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.04083467060535555</v>
+      </c>
+      <c r="H29">
+        <v>0.01198096347304941</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09417700363870375</v>
+        <v>0.05316258137947849</v>
       </c>
       <c r="C30">
-        <v>-0.04910378146160175</v>
+        <v>0.004259352115620811</v>
       </c>
       <c r="D30">
-        <v>0.0330145812143052</v>
+        <v>-0.06653957509516496</v>
       </c>
       <c r="E30">
-        <v>-0.07624765312770673</v>
+        <v>0.03712588935646093</v>
       </c>
       <c r="F30">
-        <v>0.07995122983213677</v>
+        <v>0.04785372737693274</v>
       </c>
       <c r="G30">
-        <v>-0.04834797060402026</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.07177249584598933</v>
+      </c>
+      <c r="H30">
+        <v>-0.04874191787064693</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06537629852942378</v>
+        <v>0.05496850492354034</v>
       </c>
       <c r="C31">
-        <v>-0.04116338339653209</v>
+        <v>-0.01521056294322876</v>
       </c>
       <c r="D31">
-        <v>0.00131438703135243</v>
+        <v>-0.02815351735667299</v>
       </c>
       <c r="E31">
-        <v>-0.0339561343633227</v>
+        <v>0.009283987008280047</v>
       </c>
       <c r="F31">
-        <v>0.02508450147933384</v>
+        <v>0.01482635191556128</v>
       </c>
       <c r="G31">
-        <v>-0.0841425508571069</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02645275477818364</v>
+      </c>
+      <c r="H31">
+        <v>0.009177223989229833</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02150201448239912</v>
+        <v>0.01057635864014379</v>
       </c>
       <c r="C32">
-        <v>-0.01157781403841309</v>
+        <v>-0.01362013360986814</v>
       </c>
       <c r="D32">
-        <v>0.01312316896188926</v>
+        <v>-0.00333001831761599</v>
       </c>
       <c r="E32">
-        <v>-0.08327061264303828</v>
+        <v>-0.01898976759525669</v>
       </c>
       <c r="F32">
-        <v>0.05531610683313239</v>
+        <v>0.04183386384970889</v>
       </c>
       <c r="G32">
-        <v>-0.04924347327172895</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.0519927534064176</v>
+      </c>
+      <c r="H32">
+        <v>-0.04870815979397521</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05508245375721111</v>
+        <v>0.03935337253186662</v>
       </c>
       <c r="C33">
-        <v>-0.03428647552152891</v>
+        <v>-0.001345174389572841</v>
       </c>
       <c r="D33">
-        <v>-0.01994907588855957</v>
+        <v>-0.02905791381696862</v>
       </c>
       <c r="E33">
-        <v>-0.06224264466061025</v>
+        <v>0.02554970548598557</v>
       </c>
       <c r="F33">
-        <v>0.08069980626074776</v>
+        <v>0.0007256285753000789</v>
       </c>
       <c r="G33">
-        <v>-0.06204635889403606</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.06181825262406817</v>
+      </c>
+      <c r="H33">
+        <v>-0.02393358289156774</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03491819877636992</v>
+        <v>0.02669165040396455</v>
       </c>
       <c r="C34">
-        <v>-0.01582069026150413</v>
+        <v>-0.01714176652327588</v>
       </c>
       <c r="D34">
-        <v>0.0118849644186822</v>
+        <v>-0.03440809942446761</v>
       </c>
       <c r="E34">
-        <v>-0.04337487741878668</v>
+        <v>-0.005469738835889728</v>
       </c>
       <c r="F34">
-        <v>0.0454449328301369</v>
+        <v>0.01686889161193528</v>
       </c>
       <c r="G34">
-        <v>-0.01736097143962031</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02785903559625232</v>
+      </c>
+      <c r="H34">
+        <v>-0.02757039684537989</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01446623768095594</v>
+        <v>0.02154860830194327</v>
       </c>
       <c r="C36">
-        <v>-0.00309237512553782</v>
+        <v>0.003496799235917904</v>
       </c>
       <c r="D36">
-        <v>0.00437712430573468</v>
+        <v>0.0007001376248128608</v>
       </c>
       <c r="E36">
-        <v>-0.0302492718577031</v>
+        <v>-0.002327607741798107</v>
       </c>
       <c r="F36">
-        <v>0.02814626390355028</v>
+        <v>0.005867373760748521</v>
       </c>
       <c r="G36">
-        <v>-0.04091060659511352</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02383732399696742</v>
+      </c>
+      <c r="H36">
+        <v>0.0009485134968445111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0008132776869247285</v>
+        <v>0.02182961383054489</v>
       </c>
       <c r="C38">
-        <v>0.01088233181883644</v>
+        <v>-0.01626306013156626</v>
       </c>
       <c r="D38">
-        <v>-0.01589456836849244</v>
+        <v>-0.002401295380712036</v>
       </c>
       <c r="E38">
-        <v>0.0005825549563894248</v>
+        <v>-0.004241059362434773</v>
       </c>
       <c r="F38">
-        <v>0.04141661210877316</v>
+        <v>0.007361953933325839</v>
       </c>
       <c r="G38">
-        <v>0.002501037170035992</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.03174234415139657</v>
+      </c>
+      <c r="H38">
+        <v>-0.02636596300236994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04208949916997897</v>
+        <v>0.01971183794448439</v>
       </c>
       <c r="C39">
-        <v>-0.03311377585849651</v>
+        <v>-0.0008803244784615957</v>
       </c>
       <c r="D39">
-        <v>0.01144392674870251</v>
+        <v>-0.07473422214275911</v>
       </c>
       <c r="E39">
-        <v>-0.04922504413906877</v>
+        <v>0.005613022723970165</v>
       </c>
       <c r="F39">
-        <v>0.05534222987498183</v>
+        <v>0.02145351765145119</v>
       </c>
       <c r="G39">
-        <v>-0.02586420131643085</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.05569165856793939</v>
+      </c>
+      <c r="H39">
+        <v>-0.05645570551670653</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03396075328215522</v>
+        <v>0.03344662781700714</v>
       </c>
       <c r="C40">
-        <v>-0.06490666511943759</v>
+        <v>-0.001654003456974408</v>
       </c>
       <c r="D40">
-        <v>0.0190591024492451</v>
+        <v>-0.01861652605095426</v>
       </c>
       <c r="E40">
-        <v>-0.03622117589170139</v>
+        <v>0.02443906816483659</v>
       </c>
       <c r="F40">
-        <v>0.07373861230499733</v>
+        <v>0.02484615979657179</v>
       </c>
       <c r="G40">
-        <v>-0.06428239099811991</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.04551559385827521</v>
+      </c>
+      <c r="H40">
+        <v>-0.05607349890537015</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0004667756747126865</v>
+        <v>0.01245785553043628</v>
       </c>
       <c r="C41">
-        <v>-0.001010308953856405</v>
+        <v>-0.0003895095780683496</v>
       </c>
       <c r="D41">
-        <v>-0.003170544414683241</v>
+        <v>0.01262413017981406</v>
       </c>
       <c r="E41">
-        <v>-0.01324151357974254</v>
+        <v>0.00101567582613331</v>
       </c>
       <c r="F41">
-        <v>-0.002727043589337985</v>
+        <v>0.0008615370389247812</v>
       </c>
       <c r="G41">
-        <v>-0.05398176223598442</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.007424988784590063</v>
+      </c>
+      <c r="H41">
+        <v>0.01209272718210853</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3862551502762793</v>
+        <v>0.1964976743645336</v>
       </c>
       <c r="C42">
-        <v>0.1134179846814597</v>
+        <v>0.07423967312991364</v>
       </c>
       <c r="D42">
-        <v>-0.8619370608621255</v>
+        <v>-0.376372860833401</v>
       </c>
       <c r="E42">
-        <v>0.1503257160623142</v>
+        <v>0.153328647434335</v>
       </c>
       <c r="F42">
-        <v>-0.1877520457207207</v>
+        <v>-0.8606790497658627</v>
       </c>
       <c r="G42">
-        <v>-0.03841871327048273</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.1733114726569274</v>
+      </c>
+      <c r="H42">
+        <v>0.02731979366482412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.00603301089607723</v>
+        <v>0.0113678176806</v>
       </c>
       <c r="C43">
-        <v>-0.004795547223853155</v>
+        <v>0.001736682549788467</v>
       </c>
       <c r="D43">
-        <v>-0.01520867656849437</v>
+        <v>0.01587656445880362</v>
       </c>
       <c r="E43">
-        <v>-0.01808210165186195</v>
+        <v>0.007493700817291389</v>
       </c>
       <c r="F43">
-        <v>0.01722266959608955</v>
+        <v>-0.01014857112360208</v>
       </c>
       <c r="G43">
-        <v>-0.05442679536664639</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01564804791811384</v>
+      </c>
+      <c r="H43">
+        <v>0.007299042622944826</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01613539353988805</v>
+        <v>0.01368510415665977</v>
       </c>
       <c r="C44">
-        <v>-0.01139106033947805</v>
+        <v>-0.0008293564340697424</v>
       </c>
       <c r="D44">
-        <v>-0.01338525137901151</v>
+        <v>-0.01875160622361454</v>
       </c>
       <c r="E44">
-        <v>-0.05081667501250084</v>
+        <v>-0.001681096528221185</v>
       </c>
       <c r="F44">
-        <v>0.1103401216407063</v>
+        <v>-0.005772967738118341</v>
       </c>
       <c r="G44">
-        <v>-0.1217968303326182</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06887099272803231</v>
+      </c>
+      <c r="H44">
+        <v>-0.03006024354954232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02092552010546761</v>
+        <v>0.01936459522776214</v>
       </c>
       <c r="C46">
-        <v>-0.01395849079394004</v>
+        <v>0.003461985975021219</v>
       </c>
       <c r="D46">
-        <v>-0.008096915481012745</v>
+        <v>-0.01491445130201946</v>
       </c>
       <c r="E46">
-        <v>-0.06158215118111121</v>
+        <v>0.001801317087508149</v>
       </c>
       <c r="F46">
-        <v>0.05201256221863605</v>
+        <v>0.01574101254786345</v>
       </c>
       <c r="G46">
-        <v>-0.07379015097682033</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05769006819885629</v>
+      </c>
+      <c r="H46">
+        <v>0.004636136529264948</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.1017716597135614</v>
+        <v>0.0753525506106415</v>
       </c>
       <c r="C47">
-        <v>-0.03402728826118334</v>
+        <v>-0.03052493274503314</v>
       </c>
       <c r="D47">
-        <v>0.0210058884073615</v>
+        <v>-0.04169223149439617</v>
       </c>
       <c r="E47">
-        <v>-0.03662216858960061</v>
+        <v>0.005556123312209196</v>
       </c>
       <c r="F47">
-        <v>-0.009132636899679893</v>
+        <v>0.02397758561206956</v>
       </c>
       <c r="G47">
-        <v>-0.08584839166025054</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.006293645077260847</v>
+      </c>
+      <c r="H47">
+        <v>0.02800247558233604</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01776396729484417</v>
+        <v>0.02284191048291396</v>
       </c>
       <c r="C48">
-        <v>-0.01251198294497735</v>
+        <v>-0.007022484778222251</v>
       </c>
       <c r="D48">
-        <v>-0.003322635155507034</v>
+        <v>-0.004136743809576657</v>
       </c>
       <c r="E48">
-        <v>-0.03435276830846574</v>
+        <v>0.002392163123669814</v>
       </c>
       <c r="F48">
-        <v>0.04292457350302081</v>
+        <v>0.008825604475600131</v>
       </c>
       <c r="G48">
-        <v>-0.02589457078509488</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.03005788370822002</v>
+      </c>
+      <c r="H48">
+        <v>-0.005874990596415375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09466192379980286</v>
+        <v>0.07281664002471845</v>
       </c>
       <c r="C50">
-        <v>-0.03728994323180391</v>
+        <v>-0.02745355925256373</v>
       </c>
       <c r="D50">
-        <v>0.009426087936157013</v>
+        <v>-0.04553331754116065</v>
       </c>
       <c r="E50">
-        <v>-0.05398722172696023</v>
+        <v>-0.008623326010537672</v>
       </c>
       <c r="F50">
-        <v>0.0246274347000064</v>
+        <v>0.02110646660363672</v>
       </c>
       <c r="G50">
-        <v>-0.04528554985766554</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.02352807797321287</v>
+      </c>
+      <c r="H50">
+        <v>0.01858291280493942</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01995870052853712</v>
+        <v>0.01905229645141922</v>
       </c>
       <c r="C51">
-        <v>-0.01801518872611115</v>
+        <v>0.001132623955906555</v>
       </c>
       <c r="D51">
-        <v>-0.01354322145334849</v>
+        <v>0.008102254023630835</v>
       </c>
       <c r="E51">
-        <v>-0.01667910293084109</v>
+        <v>0.006378863819041244</v>
       </c>
       <c r="F51">
-        <v>0.1266108948106623</v>
+        <v>-0.01204022753386717</v>
       </c>
       <c r="G51">
-        <v>-0.07585150636106779</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.06867594631617017</v>
+      </c>
+      <c r="H51">
+        <v>-0.03222257557624756</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1047833793843161</v>
+        <v>0.09093105160454706</v>
       </c>
       <c r="C53">
-        <v>-0.03798614535026829</v>
+        <v>-0.03664316633284563</v>
       </c>
       <c r="D53">
-        <v>0.02622489470420617</v>
+        <v>-0.07872229397137032</v>
       </c>
       <c r="E53">
-        <v>-0.04833821824008524</v>
+        <v>0.003088541103160937</v>
       </c>
       <c r="F53">
-        <v>-0.06351722037434027</v>
+        <v>0.05161795721555115</v>
       </c>
       <c r="G53">
-        <v>-0.02759318713665405</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.05046183552534606</v>
+      </c>
+      <c r="H53">
+        <v>0.03887137050505655</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01401751158240387</v>
+        <v>0.02316514024868507</v>
       </c>
       <c r="C54">
-        <v>-0.004173698528153763</v>
+        <v>-0.01090610255489864</v>
       </c>
       <c r="D54">
-        <v>0.01296257440878991</v>
+        <v>0.01542315872201102</v>
       </c>
       <c r="E54">
-        <v>-0.03961069068645132</v>
+        <v>-0.005628707792042086</v>
       </c>
       <c r="F54">
-        <v>0.04609867602115276</v>
+        <v>0.007964288337911853</v>
       </c>
       <c r="G54">
-        <v>-0.09707854697054959</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03858391795579177</v>
+      </c>
+      <c r="H54">
+        <v>0.01055324181937083</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1015454781923606</v>
+        <v>0.07625440419585812</v>
       </c>
       <c r="C55">
-        <v>-0.007079216317711542</v>
+        <v>-0.03172990416814176</v>
       </c>
       <c r="D55">
-        <v>0.02566285787570844</v>
+        <v>-0.07604580311258378</v>
       </c>
       <c r="E55">
-        <v>-0.053585826712175</v>
+        <v>-0.007997983877829984</v>
       </c>
       <c r="F55">
-        <v>-0.05192406837955616</v>
+        <v>0.0404475612637154</v>
       </c>
       <c r="G55">
-        <v>-0.05600452563492406</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.02738008398179706</v>
+      </c>
+      <c r="H55">
+        <v>0.04579759666954736</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1481028152629419</v>
+        <v>0.1266543632422829</v>
       </c>
       <c r="C56">
-        <v>-0.04255781310682637</v>
+        <v>-0.05712889466493488</v>
       </c>
       <c r="D56">
-        <v>0.08599960139075569</v>
+        <v>-0.09985495983424542</v>
       </c>
       <c r="E56">
-        <v>-0.05272057580707703</v>
+        <v>8.167984952340366e-05</v>
       </c>
       <c r="F56">
-        <v>-0.1322856732132439</v>
+        <v>0.08280116652582889</v>
       </c>
       <c r="G56">
-        <v>0.04064218234242688</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.08580050002010071</v>
+      </c>
+      <c r="H56">
+        <v>0.03549445461703427</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04382749704426313</v>
+        <v>0.03907560346236725</v>
       </c>
       <c r="C57">
-        <v>-0.03071865560868717</v>
+        <v>0.01007609284291717</v>
       </c>
       <c r="D57">
-        <v>-0.01039399460644625</v>
+        <v>-0.02562728036887532</v>
       </c>
       <c r="E57">
-        <v>0.0002969904097506529</v>
+        <v>0.0117080849653089</v>
       </c>
       <c r="F57">
-        <v>0.07251357023722506</v>
+        <v>0.01290238876534809</v>
       </c>
       <c r="G57">
-        <v>-0.04731175918006338</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.05932475287130825</v>
+      </c>
+      <c r="H57">
+        <v>-0.02212893167909891</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2098219165308624</v>
+        <v>0.1435222584885301</v>
       </c>
       <c r="C58">
-        <v>-0.1041508028795698</v>
+        <v>-0.0430053370921032</v>
       </c>
       <c r="D58">
-        <v>-0.02828137531750632</v>
+        <v>-0.1377877948187189</v>
       </c>
       <c r="E58">
-        <v>-0.2171682894071645</v>
+        <v>0.1255213394467935</v>
       </c>
       <c r="F58">
-        <v>0.2504256215463324</v>
+        <v>-0.02560209875325425</v>
       </c>
       <c r="G58">
-        <v>-0.05196962876784968</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.7275186908639696</v>
+      </c>
+      <c r="H58">
+        <v>0.4993169776205003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.0521204686095779</v>
+        <v>0.1556202437680718</v>
       </c>
       <c r="C59">
-        <v>0.009939077988171924</v>
+        <v>-0.04076456457482589</v>
       </c>
       <c r="D59">
-        <v>0.06276087032427934</v>
+        <v>0.2216957966299411</v>
       </c>
       <c r="E59">
-        <v>0.137243713951569</v>
+        <v>0.02438709614972758</v>
       </c>
       <c r="F59">
-        <v>0.09062137729352754</v>
+        <v>-0.03407288224592234</v>
       </c>
       <c r="G59">
-        <v>0.01997050414791169</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.011295380846775</v>
+      </c>
+      <c r="H59">
+        <v>-0.01852147235196592</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1682523320361224</v>
+        <v>0.1742487137850547</v>
       </c>
       <c r="C60">
-        <v>-0.06589261674260806</v>
+        <v>-0.0383448211819002</v>
       </c>
       <c r="D60">
-        <v>-0.009172934375198706</v>
+        <v>-0.02257826627631817</v>
       </c>
       <c r="E60">
-        <v>-0.01023303334402469</v>
+        <v>0.0540267679931147</v>
       </c>
       <c r="F60">
-        <v>0.2059116884595422</v>
+        <v>0.03002725817727979</v>
       </c>
       <c r="G60">
-        <v>0.3118346334053221</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.1091100308857507</v>
+      </c>
+      <c r="H60">
+        <v>-0.3883329262958254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02268822558381358</v>
+        <v>0.02134167803576765</v>
       </c>
       <c r="C61">
-        <v>-0.008826389880088163</v>
+        <v>-0.006151255700401155</v>
       </c>
       <c r="D61">
-        <v>-0.002321697084810011</v>
+        <v>-0.04357657660940479</v>
       </c>
       <c r="E61">
-        <v>-0.02675846049216378</v>
+        <v>-0.0008754985792892629</v>
       </c>
       <c r="F61">
-        <v>0.03330575452481898</v>
+        <v>0.0171277242553194</v>
       </c>
       <c r="G61">
-        <v>-0.01035464800914911</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.03390426055288396</v>
+      </c>
+      <c r="H61">
+        <v>-0.04103150134243704</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01625075175773235</v>
+        <v>0.01281203811464231</v>
       </c>
       <c r="C63">
-        <v>-0.009494215579783223</v>
+        <v>0.002166236206393091</v>
       </c>
       <c r="D63">
-        <v>0.0009900391292904048</v>
+        <v>-0.01247417241609558</v>
       </c>
       <c r="E63">
-        <v>-0.04380605714236688</v>
+        <v>-0.001534191498240671</v>
       </c>
       <c r="F63">
-        <v>0.001606935131003133</v>
+        <v>0.01494317454275708</v>
       </c>
       <c r="G63">
-        <v>-0.0499716911731824</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01804098375101861</v>
+      </c>
+      <c r="H63">
+        <v>0.01033780846689662</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03662704635288912</v>
+        <v>0.04133616587322821</v>
       </c>
       <c r="C64">
-        <v>0.01580348466523079</v>
+        <v>-0.01039828981440244</v>
       </c>
       <c r="D64">
-        <v>0.01577014754071456</v>
+        <v>-0.03979075770754871</v>
       </c>
       <c r="E64">
-        <v>-0.04485153866460054</v>
+        <v>-0.008744959013243642</v>
       </c>
       <c r="F64">
-        <v>0.01208884025062299</v>
+        <v>0.008341941402252468</v>
       </c>
       <c r="G64">
-        <v>-0.06177576048610905</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.01980923859337502</v>
+      </c>
+      <c r="H64">
+        <v>-0.02904838459811676</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01523395964557769</v>
+        <v>0.02920991971723123</v>
       </c>
       <c r="C65">
-        <v>-0.009854980206583343</v>
+        <v>0.004598267708219721</v>
       </c>
       <c r="D65">
-        <v>-0.008218307149090463</v>
+        <v>-0.06086711067874167</v>
       </c>
       <c r="E65">
-        <v>-0.02069810599951502</v>
+        <v>-0.006247923549000704</v>
       </c>
       <c r="F65">
-        <v>0.009814620990334484</v>
+        <v>0.03371098727316686</v>
       </c>
       <c r="G65">
-        <v>0.003544216388903876</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.00827702072370911</v>
+      </c>
+      <c r="H65">
+        <v>-0.06214566034760721</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04526190547660342</v>
+        <v>0.02636999057657619</v>
       </c>
       <c r="C66">
-        <v>-0.03860641299547458</v>
+        <v>-0.005457436735032203</v>
       </c>
       <c r="D66">
-        <v>0.009313831972154806</v>
+        <v>-0.08765645079292461</v>
       </c>
       <c r="E66">
-        <v>-0.04605364922132835</v>
+        <v>0.01134206610996645</v>
       </c>
       <c r="F66">
-        <v>0.05448307395176465</v>
+        <v>0.03650291686941066</v>
       </c>
       <c r="G66">
-        <v>-0.01386572297921134</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.04780437879142678</v>
+      </c>
+      <c r="H66">
+        <v>-0.06409221686636973</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01683041045497853</v>
+        <v>0.04346709992323267</v>
       </c>
       <c r="C67">
-        <v>0.009998597589316944</v>
+        <v>-0.0202435801374166</v>
       </c>
       <c r="D67">
-        <v>-0.007977558903807611</v>
+        <v>0.002746391497510492</v>
       </c>
       <c r="E67">
-        <v>0.02345777780809595</v>
+        <v>-0.002166013672488327</v>
       </c>
       <c r="F67">
-        <v>0.03675337631208445</v>
+        <v>0.01216073152417472</v>
       </c>
       <c r="G67">
-        <v>0.02095279665685533</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01582329264144516</v>
+      </c>
+      <c r="H67">
+        <v>-0.03612212975513516</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06575261684073314</v>
+        <v>0.1595225606839479</v>
       </c>
       <c r="C68">
-        <v>0.03727320141904806</v>
+        <v>-0.02149941897112392</v>
       </c>
       <c r="D68">
-        <v>0.07403404473738576</v>
+        <v>0.2185668964827481</v>
       </c>
       <c r="E68">
-        <v>0.1806760098785536</v>
+        <v>0.01969408635806248</v>
       </c>
       <c r="F68">
-        <v>0.07615245514177214</v>
+        <v>-0.05496510788422523</v>
       </c>
       <c r="G68">
-        <v>0.03486059625147077</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01334567406408443</v>
+      </c>
+      <c r="H68">
+        <v>0.03895252671066019</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07473707891653385</v>
+        <v>0.05850902578726672</v>
       </c>
       <c r="C69">
-        <v>-0.03047016562290778</v>
+        <v>-0.02869845008092102</v>
       </c>
       <c r="D69">
-        <v>0.02402881787431975</v>
+        <v>-0.03944008878581966</v>
       </c>
       <c r="E69">
-        <v>-0.01725643009309768</v>
+        <v>0.005313649687619367</v>
       </c>
       <c r="F69">
-        <v>-0.003647244106671819</v>
+        <v>0.0282776921843494</v>
       </c>
       <c r="G69">
-        <v>-0.07436291486749855</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.003142681212503943</v>
+      </c>
+      <c r="H69">
+        <v>0.007841432038157365</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.08032307838275958</v>
+        <v>0.1504772079736577</v>
       </c>
       <c r="C71">
-        <v>0.02313900300076908</v>
+        <v>-0.02884615813764978</v>
       </c>
       <c r="D71">
-        <v>0.06323310287499731</v>
+        <v>0.2008264144698368</v>
       </c>
       <c r="E71">
-        <v>0.2099921146247281</v>
+        <v>0.02053586723132934</v>
       </c>
       <c r="F71">
-        <v>0.08366137391649747</v>
+        <v>-0.06403051993396024</v>
       </c>
       <c r="G71">
-        <v>-0.008784376300529242</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.008887176126572398</v>
+      </c>
+      <c r="H71">
+        <v>0.02344234258158264</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1104430694163192</v>
+        <v>0.08434117294130085</v>
       </c>
       <c r="C72">
-        <v>-0.04835039164853105</v>
+        <v>-0.04082039568528052</v>
       </c>
       <c r="D72">
-        <v>0.07725646251200854</v>
+        <v>-0.08388905360957084</v>
       </c>
       <c r="E72">
-        <v>-0.06084004296093194</v>
+        <v>0.009062766959634636</v>
       </c>
       <c r="F72">
-        <v>0.1193781016975872</v>
+        <v>0.0803167802770029</v>
       </c>
       <c r="G72">
-        <v>0.1086930617106404</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.09331167866674572</v>
+      </c>
+      <c r="H72">
+        <v>-0.1642417891275926</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2518040580504091</v>
+        <v>0.242010785696598</v>
       </c>
       <c r="C73">
-        <v>-0.08072516794352184</v>
+        <v>-0.05064650464794167</v>
       </c>
       <c r="D73">
-        <v>0.0002748623274848553</v>
+        <v>-0.06824667909685855</v>
       </c>
       <c r="E73">
-        <v>0.06317981280644545</v>
+        <v>0.08110728012204252</v>
       </c>
       <c r="F73">
-        <v>0.3476815951935136</v>
+        <v>0.0255252256271379</v>
       </c>
       <c r="G73">
-        <v>0.463912928219406</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1435766793127295</v>
+      </c>
+      <c r="H73">
+        <v>-0.5117611148889828</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1318832974543713</v>
+        <v>0.1159828002559782</v>
       </c>
       <c r="C74">
-        <v>-0.02401581137732559</v>
+        <v>-0.05233060435809908</v>
       </c>
       <c r="D74">
-        <v>0.04015844734203382</v>
+        <v>-0.09888028057410903</v>
       </c>
       <c r="E74">
-        <v>-0.0182126649475214</v>
+        <v>0.005490567942610722</v>
       </c>
       <c r="F74">
-        <v>-0.08549385635937458</v>
+        <v>0.06542575625043816</v>
       </c>
       <c r="G74">
-        <v>0.04012092239870162</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.06759248308144312</v>
+      </c>
+      <c r="H74">
+        <v>0.015520745122548</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2218388286274378</v>
+        <v>0.2256093173422016</v>
       </c>
       <c r="C75">
-        <v>-0.08621689718736661</v>
+        <v>-0.1033734081727616</v>
       </c>
       <c r="D75">
-        <v>0.1278307997171948</v>
+        <v>-0.1597460872612897</v>
       </c>
       <c r="E75">
-        <v>-0.07548866530762002</v>
+        <v>0.02513170092584253</v>
       </c>
       <c r="F75">
-        <v>-0.1583114643324377</v>
+        <v>0.1503829446293909</v>
       </c>
       <c r="G75">
-        <v>-0.01370035587609618</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1389888693450486</v>
+      </c>
+      <c r="H75">
+        <v>0.09432360652586862</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2714855465253194</v>
+        <v>0.1996500519313834</v>
       </c>
       <c r="C76">
-        <v>-0.04007327117141866</v>
+        <v>-0.09647728265195735</v>
       </c>
       <c r="D76">
-        <v>0.1637264580616961</v>
+        <v>-0.1544174072335811</v>
       </c>
       <c r="E76">
-        <v>-0.04801958510040019</v>
+        <v>-0.01814910335508464</v>
       </c>
       <c r="F76">
-        <v>-0.1868320729167965</v>
+        <v>0.1510914544341988</v>
       </c>
       <c r="G76">
-        <v>-0.02222966448552248</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1486594741479264</v>
+      </c>
+      <c r="H76">
+        <v>0.1046834420911973</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1470190301951994</v>
+        <v>0.07129697185769311</v>
       </c>
       <c r="C77">
-        <v>-0.0339503704232598</v>
+        <v>-0.0101326564078499</v>
       </c>
       <c r="D77">
-        <v>-0.06157912041750428</v>
+        <v>-0.07489675151914017</v>
       </c>
       <c r="E77">
-        <v>-0.1069594134922184</v>
+        <v>0.01583768639812736</v>
       </c>
       <c r="F77">
-        <v>0.158798147946772</v>
+        <v>-0.02766360969509712</v>
       </c>
       <c r="G77">
-        <v>-0.218009165464293</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.1216060158385772</v>
+      </c>
+      <c r="H77">
+        <v>0.05925404598949051</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05870137089598298</v>
+        <v>0.03672402752635931</v>
       </c>
       <c r="C78">
-        <v>-0.02830829235861221</v>
+        <v>-0.01031586541967336</v>
       </c>
       <c r="D78">
-        <v>-0.001869221129001897</v>
+        <v>-0.06424225037465874</v>
       </c>
       <c r="E78">
-        <v>-0.1003300150731788</v>
+        <v>0.002789186572316605</v>
       </c>
       <c r="F78">
-        <v>0.04218802181843482</v>
+        <v>0.02870236423025317</v>
       </c>
       <c r="G78">
-        <v>-0.06245305395075158</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.05838793265281027</v>
+      </c>
+      <c r="H78">
+        <v>-0.04114571540614152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1689426020777804</v>
+        <v>0.1542492755873643</v>
       </c>
       <c r="C80">
-        <v>0.9335123415747655</v>
+        <v>-0.04726142605941046</v>
       </c>
       <c r="D80">
-        <v>0.1358812879951576</v>
+        <v>-0.04983202767205348</v>
       </c>
       <c r="E80">
-        <v>-0.2423837199439114</v>
+        <v>-0.9614492445001426</v>
       </c>
       <c r="F80">
-        <v>0.04671323775677052</v>
+        <v>-0.1440592126137763</v>
       </c>
       <c r="G80">
-        <v>0.04834915712153298</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.0916327407814951</v>
+      </c>
+      <c r="H80">
+        <v>-0.007893788730218915</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1590503022285745</v>
+        <v>0.1473522127501136</v>
       </c>
       <c r="C81">
-        <v>-0.04032264698758782</v>
+        <v>-0.06659554776239021</v>
       </c>
       <c r="D81">
-        <v>0.1070376964536655</v>
+        <v>-0.099751790007852</v>
       </c>
       <c r="E81">
-        <v>-0.04261823839146686</v>
+        <v>-0.002685897278834962</v>
       </c>
       <c r="F81">
-        <v>-0.1473544029772483</v>
+        <v>0.09429615223034522</v>
       </c>
       <c r="G81">
-        <v>0.02542136560442874</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.092167879523236</v>
+      </c>
+      <c r="H81">
+        <v>0.07027728155110025</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05400239132608234</v>
+        <v>0.03438322898887922</v>
       </c>
       <c r="C83">
-        <v>-0.03631530373443279</v>
+        <v>-0.00629295264129214</v>
       </c>
       <c r="D83">
-        <v>-0.02924344378652577</v>
+        <v>-0.02369193665765149</v>
       </c>
       <c r="E83">
-        <v>-0.02570924709705635</v>
+        <v>0.01554691570172871</v>
       </c>
       <c r="F83">
-        <v>0.05243363142780037</v>
+        <v>0.002769657873503761</v>
       </c>
       <c r="G83">
-        <v>-0.05801351622531628</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05995743517630583</v>
+      </c>
+      <c r="H83">
+        <v>-0.02536873984451384</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2415708896029073</v>
+        <v>0.2121592203359027</v>
       </c>
       <c r="C85">
-        <v>-0.05835778397649674</v>
+        <v>-0.08558547048591404</v>
       </c>
       <c r="D85">
-        <v>0.131534144072183</v>
+        <v>-0.1595996842852792</v>
       </c>
       <c r="E85">
-        <v>-0.05280473426332297</v>
+        <v>0.01505078541255106</v>
       </c>
       <c r="F85">
-        <v>-0.17535610782873</v>
+        <v>0.1315298412285223</v>
       </c>
       <c r="G85">
-        <v>-0.04152824126159078</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1530720322643022</v>
+      </c>
+      <c r="H85">
+        <v>0.06834816331119768</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.001818930480566825</v>
+        <v>0.01909808702623951</v>
       </c>
       <c r="C86">
-        <v>0.002024728879452326</v>
+        <v>0.0001346887790070647</v>
       </c>
       <c r="D86">
-        <v>-0.01751339629779667</v>
+        <v>-0.002566897185803979</v>
       </c>
       <c r="E86">
-        <v>-0.0509598585688265</v>
+        <v>0.01055323370399709</v>
       </c>
       <c r="F86">
-        <v>0.06539296683320117</v>
+        <v>-0.01059076649053074</v>
       </c>
       <c r="G86">
-        <v>-0.04539858579108392</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.08243038527997462</v>
+      </c>
+      <c r="H86">
+        <v>-0.04873256468831842</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03747192982532822</v>
+        <v>0.02867934048016869</v>
       </c>
       <c r="C87">
-        <v>-0.01149079639825397</v>
+        <v>-0.003137814579283505</v>
       </c>
       <c r="D87">
-        <v>-0.001984540840269299</v>
+        <v>-0.03153119788025995</v>
       </c>
       <c r="E87">
-        <v>-0.03056625690297933</v>
+        <v>0.003839945573018151</v>
       </c>
       <c r="F87">
-        <v>0.09185004510092083</v>
+        <v>0.01006674996098271</v>
       </c>
       <c r="G87">
-        <v>-0.03559726769019449</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.09291909034635297</v>
+      </c>
+      <c r="H87">
+        <v>-0.04005322553637577</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01292614079073146</v>
+        <v>0.03849244399167048</v>
       </c>
       <c r="C88">
-        <v>0.009776561336860855</v>
+        <v>0.01024444908828645</v>
       </c>
       <c r="D88">
-        <v>0.01777468409354365</v>
+        <v>-0.000948811466408442</v>
       </c>
       <c r="E88">
-        <v>0.001129704120118239</v>
+        <v>-0.008876440821987892</v>
       </c>
       <c r="F88">
-        <v>0.02242539667684958</v>
+        <v>0.01136704391577615</v>
       </c>
       <c r="G88">
-        <v>-0.06746284765872901</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.007277627615901391</v>
+      </c>
+      <c r="H88">
+        <v>-0.0159602431541649</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09400603662803564</v>
+        <v>0.2419211092167148</v>
       </c>
       <c r="C89">
-        <v>0.01608237723948575</v>
+        <v>-0.04147878784961479</v>
       </c>
       <c r="D89">
-        <v>0.07862751888874285</v>
+        <v>0.3430049354226973</v>
       </c>
       <c r="E89">
-        <v>0.2706592320291227</v>
+        <v>0.04945035989681532</v>
       </c>
       <c r="F89">
-        <v>0.1313940375720509</v>
+        <v>-0.07169463420611838</v>
       </c>
       <c r="G89">
-        <v>-0.07108001754551371</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.003287884361045696</v>
+      </c>
+      <c r="H89">
+        <v>0.03549505253659049</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09217397172303519</v>
+        <v>0.1986466907489525</v>
       </c>
       <c r="C90">
-        <v>0.06800391621466409</v>
+        <v>-0.03527699985457327</v>
       </c>
       <c r="D90">
-        <v>0.09458314260316077</v>
+        <v>0.3032720361161078</v>
       </c>
       <c r="E90">
-        <v>0.2983831834397614</v>
+        <v>0.02770522861679644</v>
       </c>
       <c r="F90">
-        <v>0.1125508298647584</v>
+        <v>-0.08397449846920782</v>
       </c>
       <c r="G90">
-        <v>-0.05181389188393003</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.04153819732124261</v>
+      </c>
+      <c r="H90">
+        <v>0.05176456443719771</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2934252010751174</v>
+        <v>0.2326705194934543</v>
       </c>
       <c r="C91">
-        <v>-0.06928779371526922</v>
+        <v>-0.1049606804931675</v>
       </c>
       <c r="D91">
-        <v>0.1264050661590785</v>
+        <v>-0.1540647045029938</v>
       </c>
       <c r="E91">
-        <v>-0.02219372069426092</v>
+        <v>0.01611793270199973</v>
       </c>
       <c r="F91">
-        <v>-0.2434036053740444</v>
+        <v>0.1441672723999146</v>
       </c>
       <c r="G91">
-        <v>0.02423269805097288</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1825401332213055</v>
+      </c>
+      <c r="H91">
+        <v>0.1334095879658307</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1581122418180343</v>
+        <v>0.244480108978103</v>
       </c>
       <c r="C92">
-        <v>0.07314480026227049</v>
+        <v>-0.09767605768996956</v>
       </c>
       <c r="D92">
-        <v>0.1597181922834669</v>
+        <v>0.2390200183246916</v>
       </c>
       <c r="E92">
-        <v>0.4674135419210822</v>
+        <v>0.01353233763003252</v>
       </c>
       <c r="F92">
-        <v>-0.02092495128455541</v>
+        <v>-0.04321220707639569</v>
       </c>
       <c r="G92">
-        <v>-0.4424187196400632</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.0332045346237527</v>
+      </c>
+      <c r="H92">
+        <v>0.153814454673744</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.08940603389874008</v>
+        <v>0.2226579766918602</v>
       </c>
       <c r="C93">
-        <v>0.08026747968462548</v>
+        <v>-0.04725111486136021</v>
       </c>
       <c r="D93">
-        <v>0.1012783935852836</v>
+        <v>0.3301757600336932</v>
       </c>
       <c r="E93">
-        <v>0.4179379977244417</v>
+        <v>0.0414282421650423</v>
       </c>
       <c r="F93">
-        <v>0.07785434761871803</v>
+        <v>-0.1043285347636515</v>
       </c>
       <c r="G93">
-        <v>0.03277159611235331</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.05474024347622177</v>
+      </c>
+      <c r="H93">
+        <v>-0.001028071696518591</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2823975637128651</v>
+        <v>0.2551419102991309</v>
       </c>
       <c r="C94">
-        <v>-0.1065289468906332</v>
+        <v>-0.09514112717165542</v>
       </c>
       <c r="D94">
-        <v>0.2070082750222093</v>
+        <v>-0.1397194659106422</v>
       </c>
       <c r="E94">
-        <v>-0.04918801620289429</v>
+        <v>0.03278021868228094</v>
       </c>
       <c r="F94">
-        <v>-0.2556179480460141</v>
+        <v>0.1874685032963338</v>
       </c>
       <c r="G94">
-        <v>0.08209075457720066</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1818027251246333</v>
+      </c>
+      <c r="H94">
+        <v>0.1457700344911993</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.0767458109815168</v>
+        <v>0.05529929444570021</v>
       </c>
       <c r="C95">
-        <v>-0.0662117251473839</v>
+        <v>-0.02966164629398533</v>
       </c>
       <c r="D95">
-        <v>-0.04083556106963804</v>
+        <v>-0.09397258544548275</v>
       </c>
       <c r="E95">
-        <v>-0.09974879788520814</v>
+        <v>0.08017584237631896</v>
       </c>
       <c r="F95">
-        <v>-0.008894196198551032</v>
+        <v>0.003228517693933603</v>
       </c>
       <c r="G95">
-        <v>-0.1718616263710891</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.05716841359734057</v>
+      </c>
+      <c r="H95">
+        <v>-0.01905724979688494</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1865513787165573</v>
+        <v>0.1828991852382669</v>
       </c>
       <c r="C98">
-        <v>-0.03897016192126403</v>
+        <v>-0.07094931170293951</v>
       </c>
       <c r="D98">
-        <v>-0.00618628305806992</v>
+        <v>-0.03864458158977568</v>
       </c>
       <c r="E98">
-        <v>0.06864802335219573</v>
+        <v>0.05320618767475553</v>
       </c>
       <c r="F98">
-        <v>0.1755792844808307</v>
+        <v>-0.0001906422121093686</v>
       </c>
       <c r="G98">
-        <v>0.3402181467306212</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1280047188379691</v>
+      </c>
+      <c r="H98">
+        <v>-0.3717849377653174</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.005906478033366205</v>
+        <v>0.0142163936109899</v>
       </c>
       <c r="C101">
-        <v>-0.011380221297377</v>
+        <v>0.0007978669559707902</v>
       </c>
       <c r="D101">
-        <v>0.003334364644742308</v>
+        <v>-0.009130669768167406</v>
       </c>
       <c r="E101">
-        <v>-0.113412894814584</v>
+        <v>-0.003857751229186918</v>
       </c>
       <c r="F101">
-        <v>0.1282750160659835</v>
+        <v>0.02117942785323711</v>
       </c>
       <c r="G101">
-        <v>-0.154305550207329</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1072056033884201</v>
+      </c>
+      <c r="H101">
+        <v>0.0563999609968274</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1018114992865692</v>
+        <v>0.1031229486734637</v>
       </c>
       <c r="C102">
-        <v>-0.02602562061182399</v>
+        <v>-0.03405842379729355</v>
       </c>
       <c r="D102">
-        <v>0.04329290210824334</v>
+        <v>-0.07921819896677477</v>
       </c>
       <c r="E102">
-        <v>-0.05741483289960338</v>
+        <v>0.001203526257510193</v>
       </c>
       <c r="F102">
-        <v>-0.1336478466862843</v>
+        <v>0.06534029614229184</v>
       </c>
       <c r="G102">
-        <v>-0.03404410340927108</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.08547491323020133</v>
+      </c>
+      <c r="H102">
+        <v>0.05790718995833702</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02836490039313832</v>
+        <v>0.01977198919208869</v>
       </c>
       <c r="C103">
-        <v>-0.01264719475791163</v>
+        <v>-0.007647803120958467</v>
       </c>
       <c r="D103">
-        <v>0.01495635207737318</v>
+        <v>-0.01791363124557428</v>
       </c>
       <c r="E103">
-        <v>-0.02027424698597466</v>
+        <v>-0.006853952748820108</v>
       </c>
       <c r="F103">
-        <v>-0.01919469029761923</v>
+        <v>0.0171329822305537</v>
       </c>
       <c r="G103">
-        <v>-0.03119668342523074</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.002222439963884742</v>
+      </c>
+      <c r="H103">
+        <v>0.009454807337379918</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2770562670377369</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9442293929634652</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.00577595947509244</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02492584775396162</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1444635417374583</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.02498561088709126</v>
+      </c>
+      <c r="H104">
+        <v>0.03083680110274302</v>
       </c>
     </row>
   </sheetData>
